--- a/excel/files_11_data_visualization/file05_menu_pivot_table.xlsx
+++ b/excel/files_11_data_visualization/file05_menu_pivot_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis/data_analysis/excel/files_11_data_visualization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjur\OneDrive - Hanzehogeschool Groningen\web_pages\data_analysis_master_dgv\data_analysis\excel\files_11_data_visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{35903713-A74F-4422-A1D9-2FF6BDE9DEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C92731BE-DFBD-48DC-8E71-B76D2D00451A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E824A2-681D-467D-A6D5-F4B55D53F6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{50F61F0E-0366-4A0C-BD0F-19332FD87CC5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{50F61F0E-0366-4A0C-BD0F-19332FD87CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="2" r:id="rId1"/>
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="26" r:id="rId4"/>
+    <pivotCache cacheId="27" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1303,13 +1303,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,6 +1354,62 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Calories from different food categories</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -1399,7 +1454,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1455,7 +1510,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-NL"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1698,6 +1753,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Category</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1763,6 +1874,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Calories</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -16606,7 +16773,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1409F30F-77F9-47CD-BFCF-67E6982ADF66}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1409F30F-77F9-47CD-BFCF-67E6982ADF66}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField axis="axisRow" showAll="0">
@@ -16827,7 +16994,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B6D1EAD-F692-4779-9C9A-347A625B31BD}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B6D1EAD-F692-4779-9C9A-347A625B31BD}" name="PivotTable1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
@@ -17017,9 +17184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -17057,7 +17224,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -17163,7 +17330,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17305,7 +17472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -36821,7 +36988,7 @@
   <dimension ref="A3:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36846,10 +37013,10 @@
       <c r="A4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>494</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>224.66666666666666</v>
       </c>
     </row>
@@ -36857,10 +37024,10 @@
       <c r="A5" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>113.70370370370371</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>0.7407407407407407</v>
       </c>
     </row>
@@ -36868,10 +37035,10 @@
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>526.66666666666663</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>248.92857142857142</v>
       </c>
     </row>
@@ -36879,10 +37046,10 @@
       <c r="A7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>552.96296296296293</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>242.22222222222223</v>
       </c>
     </row>
@@ -36890,10 +37057,10 @@
       <c r="A8" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>283.89473684210526</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>71.10526315789474</v>
       </c>
     </row>
@@ -36901,10 +37068,10 @@
       <c r="A9" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>222.14285714285714</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>64.285714285714292</v>
       </c>
     </row>
@@ -36912,10 +37079,10 @@
       <c r="A10" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>270</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>108.33333333333333</v>
       </c>
     </row>
@@ -36923,10 +37090,10 @@
       <c r="A11" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>531.42857142857144</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>127.67857142857143</v>
       </c>
     </row>
@@ -36934,10 +37101,10 @@
       <c r="A12" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>245.76923076923077</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>94.615384615384613</v>
       </c>
     </row>
@@ -36945,10 +37112,10 @@
       <c r="A13" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>368.26923076923077</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>127.09615384615384</v>
       </c>
     </row>
